--- a/Excel/vendas_dashboard/dashboard.xlsx
+++ b/Excel/vendas_dashboard/dashboard.xlsx
@@ -5,21 +5,21 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalanguinho\Desktop\Portifólio\Excel\1 portifolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalanguinho\Desktop\Portifólio\Excel\vendas_dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E6F97-5408-4079-90A3-5C3E698D4797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C0C2E-A5BA-42E1-81AE-690498F998B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C6E87BD6-FE14-4974-BC6A-7B7E1C7A212E}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{C6E87BD6-FE14-4974-BC6A-7B7E1C7A212E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Base" sheetId="1" r:id="rId1"/>
+    <sheet name="Base_de_Vendas" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelas_Dinamicas" sheetId="2" r:id="rId2"/>
     <sheet name="Dashboard_Faturamento" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboard_Quantidade" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_de_Vendas!$A$1:$D$360</definedName>
     <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Produto1">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor1">#N/A</definedName>
@@ -296,11 +296,11 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13539,6 +13539,1297 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33B7287A-548E-4C97-B0BE-C3830561EC0E}" name="Faturamento x Produto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Produto">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="165">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Faturamento" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A200246-D8D7-4359-9D59-26841B3A49F7}" name="Faturamento x Vendedor" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Vendedor">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="165">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Faturamento" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4947FE05-A90B-4AAE-A9CB-B4CC60780713}" name="Qty Vendas x Mes" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Mês">
   <location ref="G15:I22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -14284,7 +15575,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0399DD47-15A0-4637-A005-6E0A607A5F0E}" name="Qty Vendas x Produto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Produto">
   <location ref="D15:E21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -14943,7 +16234,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F01641-B6C5-4364-AAF4-1B1511605A92}" name="Qty Vendas x Vendedor" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Vendedor">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -15584,7 +16875,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{724F244A-F3B4-4C20-9D8E-9FA0436AB84D}" name="Faturamento x Mes" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22" rowHeaderCaption="Mês">
   <location ref="G3:I10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -16339,1297 +17630,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33B7287A-548E-4C97-B0BE-C3830561EC0E}" name="Faturamento x Produto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Produto">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="165">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Faturamento" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A200246-D8D7-4359-9D59-26841B3A49F7}" name="Faturamento x Vendedor" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Vendedor">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="165">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Faturamento" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Produto" xr10:uid="{71D2E52C-1724-4685-BE9D-6A42B5D237F0}" sourceName="Produto">
   <pivotTables>
@@ -23090,8 +23090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFBFE5-E253-47B1-A814-85ACAD721BA1}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23334,22 +23334,22 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="17">
         <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="17">
         <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="17">
         <v>52</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="17">
         <v>52</v>
       </c>
     </row>
@@ -23357,22 +23357,22 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="17">
         <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="17">
         <v>51</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="17">
         <v>51</v>
       </c>
     </row>
@@ -23380,22 +23380,22 @@
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="17">
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="17">
         <v>107</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="17">
         <v>63</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="17">
         <v>63</v>
       </c>
     </row>
@@ -23403,22 +23403,22 @@
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="17">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>42</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="17">
         <v>53</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="17">
         <v>53</v>
       </c>
     </row>
@@ -23426,22 +23426,22 @@
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="17">
         <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="17">
         <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="17">
         <v>60</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="17">
         <v>60</v>
       </c>
     </row>
@@ -23449,22 +23449,22 @@
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="17">
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="17">
         <v>54</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="17">
         <v>54</v>
       </c>
     </row>
@@ -23472,10 +23472,10 @@
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="17">
         <v>26</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="17">
         <v>26</v>
       </c>
     </row>
@@ -23494,6 +23494,86 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27F11E2-CA2D-480C-8BDC-338344DB4ADD}">
   <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="9" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9"/>
+    <col min="11" max="11" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="9" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="9"/>
+    <col min="16" max="16" width="5.28515625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="K3" s="14">
+        <f>SUM(Tabelas_Dinamicas!H4:H10)</f>
+        <v>1302400</v>
+      </c>
+      <c r="N3" s="13" t="str">
+        <f>INDEX(Tabelas_Dinamicas!D4:D9,MATCH(MAX(Tabelas_Dinamicas!E4:E9),Tabelas_Dinamicas!E4:E9,0))</f>
+        <v>Notebook Gamer</v>
+      </c>
+      <c r="R3" s="13" t="str">
+        <f>_xlfn.XLOOKUP(MAX(Tabelas_Dinamicas!B4:B9),Tabelas_Dinamicas!B4:B9,Tabelas_Dinamicas!A4:A9)</f>
+        <v>Pedro</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C24B6-F443-4557-8E22-7D88F2193C86}">
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -23515,86 +23595,6 @@
     <row r="1" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="K3" s="14">
-        <f>SUM(Tabelas_Dinamicas!H4:H10)</f>
-        <v>1302400</v>
-      </c>
-      <c r="N3" s="13" t="str">
-        <f>INDEX(Tabelas_Dinamicas!D16:D21,MATCH(MAX(Tabelas_Dinamicas!E16:E21),Tabelas_Dinamicas!E16:E21,0))</f>
-        <v>Notebook Gamer</v>
-      </c>
-      <c r="R3" s="13" t="str">
-        <f>_xlfn.XLOOKUP(MAX(Tabelas_Dinamicas!B4:B9),Tabelas_Dinamicas!B4:B9,Tabelas_Dinamicas!A4:A9)</f>
-        <v>Pedro</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53C24B6-F443-4557-8E22-7D88F2193C86}">
-  <dimension ref="A1:R32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" style="9" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="9" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="5.28515625" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -23621,19 +23621,19 @@
     </row>
     <row r="4" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
+      <c r="B32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
